--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhi.NTT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="KIATISAS" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">KIATISAS!$A$1:$O$7</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -30,7 +30,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -644,18 +644,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="5.7109375" style="1"/>
     <col min="3" max="14" width="7.7109375" style="1"/>
     <col min="15" max="1025" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025">
+    <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -672,7 +672,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:1025" ht="13.5" thickBot="1">
+    <row r="2" spans="1:1025" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -689,7 +689,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:1025" ht="13.5" thickBot="1">
+    <row r="3" spans="1:1025" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="5"/>
@@ -706,7 +706,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:1025">
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="8"/>
@@ -723,7 +723,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:1025">
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="7"/>
@@ -740,7 +740,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:1025">
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="8"/>
@@ -757,7 +757,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:1025">
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="7"/>
@@ -774,7 +774,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:1025">
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="ALW8"/>
       <c r="ALX8"/>
       <c r="ALY8"/>
@@ -791,7 +791,7 @@
       <c r="AMJ8"/>
       <c r="AMK8"/>
     </row>
-    <row r="9" spans="1:1025">
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="ALW9"/>
       <c r="ALX9"/>
       <c r="ALY9"/>
@@ -808,7 +808,7 @@
       <c r="AMJ9"/>
       <c r="AMK9"/>
     </row>
-    <row r="10" spans="1:1025">
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="ALW10"/>
       <c r="ALX10"/>
       <c r="ALY10"/>
@@ -825,7 +825,7 @@
       <c r="AMJ10"/>
       <c r="AMK10"/>
     </row>
-    <row r="11" spans="1:1025">
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="ALW11"/>
       <c r="ALX11"/>
       <c r="ALY11"/>
@@ -842,7 +842,7 @@
       <c r="AMJ11"/>
       <c r="AMK11"/>
     </row>
-    <row r="12" spans="1:1025">
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="ALW12"/>
       <c r="ALX12"/>
       <c r="ALY12"/>
@@ -859,7 +859,7 @@
       <c r="AMJ12"/>
       <c r="AMK12"/>
     </row>
-    <row r="13" spans="1:1025">
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="ALW13"/>
       <c r="ALX13"/>
       <c r="ALY13"/>
@@ -876,7 +876,7 @@
       <c r="AMJ13"/>
       <c r="AMK13"/>
     </row>
-    <row r="14" spans="1:1025">
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="ALW14"/>
       <c r="ALX14"/>
       <c r="ALY14"/>
@@ -908,8 +908,5 @@
 page &amp;P</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="7" max="16383" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
@@ -179,15 +179,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -300,7 +300,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
@@ -299,18 +299,18 @@
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U35" activeCellId="0" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.01171875" defaultRowHeight="8.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="7.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -327,7 +327,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -344,7 +344,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -361,7 +361,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -378,7 +378,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -395,7 +395,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
@@ -412,7 +412,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
@@ -11,7 +11,7 @@
     <sheet name="KIATISAS" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">KIATISAS!$A$1:$O$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">KIATISAS!$A$1:$O$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -300,10 +300,10 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U35" activeCellId="0" sqref="U35"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.01171875" defaultRowHeight="8.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="7.71"/>
@@ -395,47 +395,13 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-    </row>
+    <row r="6" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1.4" right="1.6875" top="1.07291666666667" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
@@ -169,9 +169,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -183,6 +187,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -191,6 +199,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -199,7 +211,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="5" fillId="0" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -207,7 +219,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="5" fillId="4" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -300,100 +312,100 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="2" width="7.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="2" width="8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
@@ -312,7 +312,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A:B"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhi.NTT\Desktop\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09804971-F8AD-492B-AB86-580275FB0DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KIATISAS" sheetId="1" r:id="rId1"/>
@@ -27,11 +28,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -170,8 +171,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_年間勤務台帳" xfId="1"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="標準_年間勤務台帳" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,18 +517,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="8" style="1"/>
     <col min="3" max="1025" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="8.25" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -544,7 +545,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="8.25" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -561,7 +562,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="8.25" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="7"/>
@@ -578,7 +579,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="8.25" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="9"/>
@@ -595,7 +596,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="8.25" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="10"/>
@@ -612,8 +613,8 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:15" ht="8.25" customHeight="1"/>
+    <row r="7" spans="1:15" ht="8.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
@@ -626,7 +627,6 @@
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ フォントサイズ,Regular"&amp;7毛テスト会社&amp;C&amp;"ＭＳ フォントサイズ,Bold"&amp;9KIATISAS&amp;R&amp;"MS フォントサイズ,Regular"&amp;7 2020/12/17  13:52
 page &amp;P</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09804971-F8AD-492B-AB86-580275FB0DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B3DCD2-6944-450F-9BAE-A08DB03AAEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,17 +518,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK7"/>
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="8" style="1"/>
     <col min="3" max="1025" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="8.25" customHeight="1">
+    <row r="1" spans="1:15" ht="12" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -545,7 +545,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="8.25" customHeight="1">
+    <row r="2" spans="1:15" ht="12" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -562,7 +562,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="8.25" customHeight="1">
+    <row r="3" spans="1:15" ht="12" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="7"/>
@@ -579,7 +579,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="8.25" customHeight="1">
+    <row r="4" spans="1:15" ht="12" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="9"/>
@@ -596,7 +596,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" ht="8.25" customHeight="1">
+    <row r="5" spans="1:15" ht="12" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="10"/>
@@ -613,8 +613,6 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="8.25" customHeight="1"/>
-    <row r="7" spans="1:15" ht="8.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
@@ -625,7 +623,7 @@
   <pageMargins left="1" right="1" top="1.5" bottom="1.5" header="0.8" footer="0.8"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ フォントサイズ,Regular"&amp;7毛テスト会社&amp;C&amp;"ＭＳ フォントサイズ,Bold"&amp;9KIATISAS&amp;R&amp;"MS フォントサイズ,Regular"&amp;7 2020/12/17  13:52
+    <oddHeader>&amp;L&amp;"ＭＳ フォントサイズ,Thường"&amp;7毛テスト会社&amp;C&amp;"ＭＳ フォントサイズ,Đậm"&amp;9KIATISAS&amp;R&amp;"MS フォントサイズ,Thường"&amp;7 2020/12/17  13:52
 page &amp;P</oddHeader>
   </headerFooter>
 </worksheet>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B3DCD2-6944-450F-9BAE-A08DB03AAEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="KIATISAS" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">KIATISAS!$A$1:$O$5</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
@@ -85,7 +79,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -109,17 +103,122 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -130,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -154,25 +253,43 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_年間勤務台帳" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準_年間勤務台帳" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -298,7 +415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -333,7 +450,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -510,14 +627,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="140" workbookViewId="0"/>
@@ -562,9 +679,9 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="12" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+    <row r="3" spans="1:15" ht="12" customHeight="1" thickBot="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -577,41 +694,41 @@
       <c r="L3" s="8"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="12" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -623,8 +740,7 @@
   <pageMargins left="1" right="1" top="1.5" bottom="1.5" header="0.8" footer="0.8"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ フォントサイズ,Thường"&amp;7毛テスト会社&amp;C&amp;"ＭＳ フォントサイズ,Đậm"&amp;9KIATISAS&amp;R&amp;"MS フォントサイズ,Thường"&amp;7 2020/12/17  13:52
-page &amp;P</oddHeader>
+    <oddHeader>&amp;L&amp;"ＭＳ フォントサイズ,Regular"&amp;7毛テスト会社&amp;C&amp;"ＭＳ フォントサイズ,Regular"&amp;12KIATISAS&amp;R&amp;"MS フォントサイズ,Regular"&amp;7 2020/12/17  13:52page &amp;P</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
@@ -627,7 +627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
@@ -26,7 +26,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -41,19 +41,19 @@
     </font>
     <font>
       <sz val="7"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <color rgb="FF000000"/>
+      <name val="MSゴシック"/>
     </font>
     <font>
       <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <name val="MSゴシック"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MSゴシック"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,20 +62,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -103,38 +115,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
       </left>
       <right style="hair">
         <color auto="1"/>
@@ -150,36 +132,6 @@
     <border>
       <left style="hair">
         <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
       </left>
       <right style="hair">
         <color auto="1"/>
@@ -196,6 +148,56 @@
       <left style="hair">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="hair">
         <color auto="1"/>
       </right>
@@ -211,14 +213,10 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -231,60 +229,58 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -627,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,96 +635,96 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="8" style="1"/>
-    <col min="3" max="1025" width="8" style="2"/>
+    <col min="1" max="2" width="9.28515625" style="19"/>
+    <col min="3" max="1025" width="9.28515625" style="4"/>
+    <col min="1026" max="16384" width="9.28515625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="12" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+    <row r="2" spans="1:15" ht="12" customHeight="1" thickBot="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="9"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="12" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -737,10 +733,7 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="1" right="1" top="1.5" bottom="1.5" header="0.8" footer="0.8"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ フォントサイズ,Regular"&amp;7毛テスト会社&amp;C&amp;"ＭＳ フォントサイズ,Regular"&amp;12KIATISAS&amp;R&amp;"MS フォントサイズ,Regular"&amp;7 2020/12/17  13:52page &amp;P</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
@@ -240,47 +240,47 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -623,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -637,7 +637,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="19"/>
+    <col min="1" max="2" width="9.28515625" style="13"/>
     <col min="3" max="1025" width="9.28515625" style="4"/>
     <col min="1026" max="16384" width="9.28515625" style="5"/>
   </cols>
@@ -676,55 +676,55 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="10"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="12" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -733,7 +733,7 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005.xlsx
@@ -10,7 +10,7 @@
     <sheet name="KIATISAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">KIATISAS!$A$1:$O$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">KIATISAS!$A$1:$O$7</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -91,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -106,18 +106,16 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="hair">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="hair">
         <color auto="1"/>
       </right>
@@ -126,73 +124,6 @@
       </top>
       <bottom style="hair">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -217,6 +148,113 @@
       <top/>
       <bottom style="hair">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -227,7 +265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -240,46 +278,52 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -631,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK5"/>
+  <dimension ref="A1:AMK7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="13"/>
+    <col min="1" max="2" width="9.28515625" style="8"/>
     <col min="3" max="1025" width="9.28515625" style="4"/>
     <col min="1026" max="16384" width="9.28515625" style="5"/>
   </cols>
@@ -676,25 +720,25 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="8"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -710,26 +754,61 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="12" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" ht="12" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" ht="12" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
